--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -134,13 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログ確認</t>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>ヒク</t>
@@ -167,6 +160,236 @@
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人票の読み込み</t>
+    <rPh sb="0" eb="3">
+      <t>キュウジンヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSのComputer Vision APIを使う？</t>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに学年を追加</t>
+    <rPh sb="3" eb="5">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行SQLの変更（学科ごとの設定を取得する）</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jQueryでページング処理を調べてみる</t>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像が必要</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOの追加、表示画面の追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正コスト</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOに処理追加。更新処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特大</t>
+    <rPh sb="0" eb="2">
+      <t>トクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDF、画像の読み込み</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに学年を追加。4月1日0時に動くバッチを作り、学年を更新</t>
+    <rPh sb="3" eb="5">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングについて学での絞込みを追加</t>
+    <rPh sb="9" eb="10">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シボリコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７の対応が先</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ確認（検索）</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -205,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,17 +451,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -625,21 +861,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -647,16 +885,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,14 +908,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -679,14 +929,20 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -694,45 +950,151 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,10 @@
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -782,7 +786,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,7 +868,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,7 +923,9 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -367,16 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>７の対応が先</t>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログの削除</t>
     <rPh sb="3" eb="5">
       <t>サクジョ</t>
@@ -395,6 +385,16 @@
   </si>
   <si>
     <t>済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8の対応が先</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,7 +868,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -1075,7 +1075,9 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -1085,7 +1087,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>31</v>
@@ -1096,7 +1098,9 @@
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -394,6 +394,40 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認テストが出来る機能</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -865,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,9 +977,6 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -985,8 +1016,8 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1101,6 +1132,27 @@
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -428,6 +428,28 @@
     <t>中</t>
     <rPh sb="0" eb="1">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件数多いときは表示するかどうかの警告を出すことでとりあえず対応しない</t>
+    <rPh sb="0" eb="2">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,7 +924,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,6 +1000,9 @@
         <v>17</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -1019,7 +1044,9 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="2017年８月" sheetId="1" r:id="rId1"/>
-    <sheet name="2018年2月3月" sheetId="2" r:id="rId2"/>
+    <sheet name="修正内容" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -450,6 +450,95 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正月</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括公開で変更する学科を選択できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括変更画面にチェックボックスをつける</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開を学年毎にする</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開画面に学年のチェックボックスをつける
+※DBスキーマも変更が必要</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,6 +547,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,6 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -921,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,12 +1028,13 @@
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,19 +1045,22 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,20 +1070,23 @@
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6">
+        <v>43160</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -993,18 +1096,19 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1014,18 +1118,19 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1035,20 +1140,23 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6">
+        <v>43160</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1058,18 +1166,19 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1079,18 +1188,19 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1100,21 +1210,22 @@
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1124,20 +1235,23 @@
       <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6">
+        <v>43160</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1147,20 +1261,23 @@
       <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1170,16 +1287,61 @@
       <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -405,19 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認テストが出来る機能</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -539,6 +526,42 @@
     <t>中</t>
     <rPh sb="0" eb="1">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認テストが出来る機能
+ 開始後時間を計る
+　テーブルを追加する必要有り</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,7 +571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -627,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,7 +1043,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -1105,7 +1128,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1277,25 +1300,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1304,14 +1327,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="6">
+        <v>43160</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1319,21 +1344,25 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="6">
+        <v>43160</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1341,7 +1370,9 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/アップデート.xlsx
+++ b/設計書/アップデート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -563,6 +563,55 @@
     <rPh sb="34" eb="35">
       <t>ア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開ができない（不具合）</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題データと学科データの連関エンティティが無かったため、Update文が空振りしていた。
+そのため、一度削除→Insertするという処理に変更した。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カラブ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -654,6 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1040,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,6 +1424,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43770</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
